--- a/SupplementaryTables/SupplementaryTable13.xlsx
+++ b/SupplementaryTables/SupplementaryTable13.xlsx
@@ -17,14 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>Retinal flecking</t>
-  </si>
-  <si>
     <t>enrichmentRatio</t>
   </si>
   <si>
@@ -34,13 +31,7 @@
     <t>FDR</t>
   </si>
   <si>
-    <t>RHO</t>
-  </si>
-  <si>
-    <t>BEST1</t>
-  </si>
-  <si>
-    <t>PRPH2</t>
+    <t>Var1</t>
   </si>
   <si>
     <t>Mental Disorders</t>
@@ -52,24 +43,18 @@
     <t>Eating Disorders</t>
   </si>
   <si>
-    <t>Schizophrenia</t>
-  </si>
-  <si>
     <t>Anxiety Disorders</t>
   </si>
   <si>
-    <t>Depression, Bipolar</t>
-  </si>
-  <si>
-    <t>Child Behavior Disorders</t>
-  </si>
-  <si>
     <t>PTCHD1</t>
   </si>
   <si>
     <t>SLC30A3</t>
   </si>
   <si>
+    <t>OPHN1</t>
+  </si>
+  <si>
     <t>HTR1A</t>
   </si>
   <si>
@@ -88,6 +73,9 @@
     <t>NDST3</t>
   </si>
   <si>
+    <t>PCDH19</t>
+  </si>
+  <si>
     <t>CLSTN2</t>
   </si>
   <si>
@@ -97,6 +85,9 @@
     <t>DOC2A</t>
   </si>
   <si>
+    <t>CSMD1</t>
+  </si>
+  <si>
     <t>L1CAM</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
     <t>HAP1</t>
   </si>
   <si>
-    <t>GRIK4</t>
-  </si>
-  <si>
     <t>GLRA3</t>
   </si>
   <si>
@@ -125,9 +113,6 @@
   </si>
   <si>
     <t>MC4R</t>
-  </si>
-  <si>
-    <t>NGEF</t>
   </si>
 </sst>
 </file>
@@ -187,41 +172,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" customWidth="true"/>
-    <col min="2" max="2" width="16" customWidth="true"/>
-    <col min="3" max="3" width="7.42578125" customWidth="true"/>
-    <col min="4" max="4" width="4.5703125" customWidth="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>90.979591836734699</v>
-      </c>
-      <c r="C2">
-        <v>3.4567768879556482e-06</v>
-      </c>
-      <c r="D2">
-        <v>0.022151026298019794</v>
       </c>
     </row>
   </sheetData>
@@ -230,30 +195,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -262,10 +209,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="true"/>
     <col min="2" max="2" width="16" customWidth="true"/>
     <col min="3" max="3" width="15.5703125" customWidth="true"/>
     <col min="4" max="4" width="15.5703125" customWidth="true"/>
@@ -276,111 +223,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>5.0725379757637823</v>
+        <v>5.5674197294968346</v>
       </c>
       <c r="C2">
-        <v>9.6174423980244228e-09</v>
+        <v>2.4550139698931162e-10</v>
       </c>
       <c r="D2">
-        <v>6.1628570886540501e-05</v>
+        <v>1.5731729519075088e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>13.661675860257422</v>
+        <v>13.49507005708355</v>
       </c>
       <c r="C3">
-        <v>7.6785354630182212e-07</v>
+        <v>8.3522523686152539e-07</v>
       </c>
       <c r="D3">
-        <v>0.0019908613323664781</v>
+        <v>0.0022117503396597016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>8.6445607911576499</v>
+        <v>8.539139318094751</v>
       </c>
       <c r="C4">
-        <v>9.3205118556483058e-07</v>
+        <v>1.0354636421627816e-06</v>
       </c>
       <c r="D4">
-        <v>0.0019908613323664781</v>
+        <v>0.0022117503396597016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>4.8862583325860163</v>
+        <v>8.1316447779862422</v>
       </c>
       <c r="C5">
-        <v>1.4116519576834463e-05</v>
+        <v>2.4143860169578701e-05</v>
       </c>
       <c r="D5">
-        <v>0.02261466436208881</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>8.2320354542576766</v>
-      </c>
-      <c r="C6">
-        <v>2.22770316982146e-05</v>
-      </c>
-      <c r="D6">
-        <v>0.028550243824431828</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>45.864197530864196</v>
-      </c>
-      <c r="C7">
-        <v>3.3132041763916931e-05</v>
-      </c>
-      <c r="D7">
-        <v>0.035385020603863282</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>13.104056437389771</v>
-      </c>
-      <c r="C8">
-        <v>3.8952029919547826e-05</v>
-      </c>
-      <c r="D8">
-        <v>0.035657801103494639</v>
+        <v>0.03867846399166508</v>
       </c>
     </row>
   </sheetData>
@@ -389,255 +294,196 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:D21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="true"/>
     <col min="2" max="2" width="13.85546875" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
-    <col min="4" max="4" width="13.5703125" customWidth="true"/>
-    <col min="5" max="5" width="16.85546875" customWidth="true"/>
-    <col min="6" max="6" width="18.42578125" customWidth="true"/>
-    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="16.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
